--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agt-Mas1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agt-Mas1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,19 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Agt</t>
+  </si>
+  <si>
+    <t>Mas1</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Agt</t>
-  </si>
-  <si>
-    <t>Mas1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +540,10 @@
         <v>10.842088</v>
       </c>
       <c r="I2">
-        <v>0.9241192353022275</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9439348023377215</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8365456666666667</v>
+        <v>0.214156</v>
       </c>
       <c r="N2">
-        <v>2.509637</v>
+        <v>0.642468</v>
       </c>
       <c r="O2">
-        <v>0.295534481644978</v>
+        <v>0.178960520457042</v>
       </c>
       <c r="P2">
-        <v>0.3513430385236866</v>
+        <v>0.1975964918647702</v>
       </c>
       <c r="Q2">
-        <v>3.023300578006222</v>
+        <v>0.7739660659093334</v>
       </c>
       <c r="R2">
-        <v>27.209705202056</v>
+        <v>6.965694593184001</v>
       </c>
       <c r="S2">
-        <v>0.2731090991831973</v>
+        <v>0.178960520457042</v>
       </c>
       <c r="T2">
-        <v>0.3316449216215906</v>
+        <v>0.1975964918647702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +602,10 @@
         <v>10.842088</v>
       </c>
       <c r="I3">
-        <v>0.9241192353022275</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9439348023377215</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +620,10 @@
         <v>1.931777</v>
       </c>
       <c r="O3">
-        <v>0.227485773579482</v>
+        <v>0.5380996677296662</v>
       </c>
       <c r="P3">
-        <v>0.2704440526379599</v>
+        <v>0.5941344288977042</v>
       </c>
       <c r="Q3">
         <v>2.327166247819556</v>
@@ -635,10 +632,10 @@
         <v>20.944496230376</v>
       </c>
       <c r="S3">
-        <v>0.2102239791224066</v>
+        <v>0.5380996677296662</v>
       </c>
       <c r="T3">
-        <v>0.255281553370225</v>
+        <v>0.5941344288977042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,598 +664,40 @@
         <v>10.842088</v>
       </c>
       <c r="I4">
-        <v>0.9241192353022275</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9439348023377215</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.001271666666666667</v>
+        <v>0.3385845</v>
       </c>
       <c r="N4">
-        <v>0.003815</v>
+        <v>0.677169</v>
       </c>
       <c r="O4">
-        <v>0.0004492538353058991</v>
+        <v>0.2829398118132919</v>
       </c>
       <c r="P4">
-        <v>0.0005340906640951916</v>
+        <v>0.2082690792375256</v>
       </c>
       <c r="Q4">
-        <v>0.004595840635555556</v>
+        <v>1.223654314812</v>
       </c>
       <c r="R4">
-        <v>0.04136256572</v>
+        <v>7.341925888872001</v>
       </c>
       <c r="S4">
-        <v>0.0004151641107394804</v>
+        <v>0.2829398118132919</v>
       </c>
       <c r="T4">
-        <v>0.0005041467654431171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.614029333333333</v>
-      </c>
-      <c r="H5">
-        <v>10.842088</v>
-      </c>
-      <c r="I5">
-        <v>0.9241192353022275</v>
-      </c>
-      <c r="J5">
-        <v>0.9439348023377215</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.3488765</v>
-      </c>
-      <c r="N5">
-        <v>2.697753</v>
-      </c>
-      <c r="O5">
-        <v>0.476530490940234</v>
-      </c>
-      <c r="P5">
-        <v>0.3776788181742582</v>
-      </c>
-      <c r="Q5">
-        <v>4.874879238044</v>
-      </c>
-      <c r="R5">
-        <v>29.249275428264</v>
-      </c>
-      <c r="S5">
-        <v>0.4403709928858841</v>
-      </c>
-      <c r="T5">
-        <v>0.3565041805804627</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.05046166666666666</v>
-      </c>
-      <c r="H6">
-        <v>0.151385</v>
-      </c>
-      <c r="I6">
-        <v>0.01290321480846011</v>
-      </c>
-      <c r="J6">
-        <v>0.01317989395141378</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.8365456666666667</v>
-      </c>
-      <c r="N6">
-        <v>2.509637</v>
-      </c>
-      <c r="O6">
-        <v>0.295534481644978</v>
-      </c>
-      <c r="P6">
-        <v>0.3513430385236866</v>
-      </c>
-      <c r="Q6">
-        <v>0.04221348858277778</v>
-      </c>
-      <c r="R6">
-        <v>0.379921397245</v>
-      </c>
-      <c r="S6">
-        <v>0.003813344899972063</v>
-      </c>
-      <c r="T6">
-        <v>0.004630663988309678</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.05046166666666666</v>
-      </c>
-      <c r="H7">
-        <v>0.151385</v>
-      </c>
-      <c r="I7">
-        <v>0.01290321480846011</v>
-      </c>
-      <c r="J7">
-        <v>0.01317989395141378</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.6439256666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.931777</v>
-      </c>
-      <c r="O7">
-        <v>0.227485773579482</v>
-      </c>
-      <c r="P7">
-        <v>0.2704440526379599</v>
-      </c>
-      <c r="Q7">
-        <v>0.03249356234944444</v>
-      </c>
-      <c r="R7">
-        <v>0.292442061145</v>
-      </c>
-      <c r="S7">
-        <v>0.002935297802364777</v>
-      </c>
-      <c r="T7">
-        <v>0.003564423933558879</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.05046166666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.151385</v>
-      </c>
-      <c r="I8">
-        <v>0.01290321480846011</v>
-      </c>
-      <c r="J8">
-        <v>0.01317989395141378</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.001271666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.003815</v>
-      </c>
-      <c r="O8">
-        <v>0.0004492538353058991</v>
-      </c>
-      <c r="P8">
-        <v>0.0005340906640951916</v>
-      </c>
-      <c r="Q8">
-        <v>6.417041944444443E-05</v>
-      </c>
-      <c r="R8">
-        <v>0.0005775337749999999</v>
-      </c>
-      <c r="S8">
-        <v>5.796818740476579E-06</v>
-      </c>
-      <c r="T8">
-        <v>7.039258313214787E-06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.05046166666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.151385</v>
-      </c>
-      <c r="I9">
-        <v>0.01290321480846011</v>
-      </c>
-      <c r="J9">
-        <v>0.01317989395141378</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.3488765</v>
-      </c>
-      <c r="N9">
-        <v>2.697753</v>
-      </c>
-      <c r="O9">
-        <v>0.476530490940234</v>
-      </c>
-      <c r="P9">
-        <v>0.3776788181742582</v>
-      </c>
-      <c r="Q9">
-        <v>0.06806655631749998</v>
-      </c>
-      <c r="R9">
-        <v>0.4083993379049999</v>
-      </c>
-      <c r="S9">
-        <v>0.006148775287382795</v>
-      </c>
-      <c r="T9">
-        <v>0.004977766771232013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.2462915</v>
-      </c>
-      <c r="H10">
-        <v>0.492583</v>
-      </c>
-      <c r="I10">
-        <v>0.06297754988931244</v>
-      </c>
-      <c r="J10">
-        <v>0.04288530371086472</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.8365456666666667</v>
-      </c>
-      <c r="N10">
-        <v>2.509637</v>
-      </c>
-      <c r="O10">
-        <v>0.295534481644978</v>
-      </c>
-      <c r="P10">
-        <v>0.3513430385236866</v>
-      </c>
-      <c r="Q10">
-        <v>0.2060340870618333</v>
-      </c>
-      <c r="R10">
-        <v>1.236204522371</v>
-      </c>
-      <c r="S10">
-        <v>0.01861203756180869</v>
-      </c>
-      <c r="T10">
-        <v>0.01506745291378635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.2462915</v>
-      </c>
-      <c r="H11">
-        <v>0.492583</v>
-      </c>
-      <c r="I11">
-        <v>0.06297754988931244</v>
-      </c>
-      <c r="J11">
-        <v>0.04288530371086472</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.6439256666666667</v>
-      </c>
-      <c r="N11">
-        <v>1.931777</v>
-      </c>
-      <c r="O11">
-        <v>0.227485773579482</v>
-      </c>
-      <c r="P11">
-        <v>0.2704440526379599</v>
-      </c>
-      <c r="Q11">
-        <v>0.1585934183318334</v>
-      </c>
-      <c r="R11">
-        <v>0.9515605099910001</v>
-      </c>
-      <c r="S11">
-        <v>0.01432649665471066</v>
-      </c>
-      <c r="T11">
-        <v>0.011598075334176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.2462915</v>
-      </c>
-      <c r="H12">
-        <v>0.492583</v>
-      </c>
-      <c r="I12">
-        <v>0.06297754988931244</v>
-      </c>
-      <c r="J12">
-        <v>0.04288530371086472</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.001271666666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.003815</v>
-      </c>
-      <c r="O12">
-        <v>0.0004492538353058991</v>
-      </c>
-      <c r="P12">
-        <v>0.0005340906640951916</v>
-      </c>
-      <c r="Q12">
-        <v>0.0003132006908333333</v>
-      </c>
-      <c r="R12">
-        <v>0.001879204145</v>
-      </c>
-      <c r="S12">
-        <v>2.829290582594221E-05</v>
-      </c>
-      <c r="T12">
-        <v>2.290464033885972E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.2462915</v>
-      </c>
-      <c r="H13">
-        <v>0.492583</v>
-      </c>
-      <c r="I13">
-        <v>0.06297754988931244</v>
-      </c>
-      <c r="J13">
-        <v>0.04288530371086472</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.3488765</v>
-      </c>
-      <c r="N13">
-        <v>2.697753</v>
-      </c>
-      <c r="O13">
-        <v>0.476530490940234</v>
-      </c>
-      <c r="P13">
-        <v>0.3776788181742582</v>
-      </c>
-      <c r="Q13">
-        <v>0.3322168164997499</v>
-      </c>
-      <c r="R13">
-        <v>1.328867265999</v>
-      </c>
-      <c r="S13">
-        <v>0.03001072276696714</v>
-      </c>
-      <c r="T13">
-        <v>0.01619687082256352</v>
+        <v>0.2082690792375256</v>
       </c>
     </row>
   </sheetData>
